--- a/기획/테이블/캐릭터/NPC/NPC 다음 상호작용 테이블.xlsx
+++ b/기획/테이블/캐릭터/NPC/NPC 다음 상호작용 테이블.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\UnrealProject\기획\테이블\캐릭터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\UnrealProject\기획\테이블\캐릭터\NPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3777D82-6F9E-4634-85AF-962072E67B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95091A9C-6803-41F0-9535-19F7B507968F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="1650" windowWidth="20220" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6600" yWindow="2940" windowWidth="20205" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NPC 상호작용 마무리 작업 테이블" sheetId="1" r:id="rId1"/>
@@ -353,10 +353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -390,36 +390,36 @@
         <v>502</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1500</v>
+        <v>503</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1501</v>
+        <v>504</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>5000</v>
+        <v>505</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>5001</v>
+        <v>506</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -427,25 +427,113 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>5002</v>
+        <v>507</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>5003</v>
+        <v>508</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
+        <v>509</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>510</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>511</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>512</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>513</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1500</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1501</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>5000</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>5001</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>5002</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>5003</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>10000</v>
       </c>
-      <c r="B11">
+      <c r="B22">
         <v>0</v>
       </c>
     </row>
